--- a/Batch-09/Modules/Course Module/Course Schedule/TNGS LS Course Schedule.xlsx
+++ b/Batch-09/Modules/Course Module/Course Schedule/TNGS LS Course Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-godwill.ngwanah\tngs\AWS-Sol-Arch-02\Batch-09\Modules\Course Module\Course Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A659699B-2BD7-446B-A06C-517942BDB1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027797F8-A626-425A-91E8-4E821BFBD963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30960" yWindow="2160" windowWidth="21600" windowHeight="11715" xr2:uid="{A076ADCC-7415-4768-96A6-DB0615FB62A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A076ADCC-7415-4768-96A6-DB0615FB62A0}"/>
   </bookViews>
   <sheets>
     <sheet name="TNGS LS Course Schedule" sheetId="1" r:id="rId1"/>
@@ -221,10 +221,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -233,9 +233,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,8 +556,8 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,7 +565,7 @@
     <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
@@ -594,12 +594,12 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -609,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -622,7 +622,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -630,7 +630,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -643,7 +643,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -664,7 +664,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -672,7 +672,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -685,16 +685,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -704,7 +704,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -717,7 +717,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
@@ -725,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
@@ -738,7 +738,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
@@ -746,7 +746,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -759,7 +759,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -767,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
@@ -780,16 +780,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -799,7 +799,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -812,7 +812,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
@@ -820,7 +820,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>5</v>
@@ -833,7 +833,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -841,7 +841,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="1">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>5</v>
@@ -854,15 +854,15 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>5</v>
@@ -875,26 +875,26 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1">
-        <v>29</v>
+      <c r="D17" s="3">
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
@@ -905,17 +905,20 @@
       <c r="G17" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="H17" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>5</v>
@@ -928,15 +931,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>5</v>
@@ -949,7 +952,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
@@ -957,7 +960,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>5</v>
@@ -970,42 +973,39 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="7">
-        <v>5</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>23</v>
+      <c r="D22" s="1">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>5</v>
@@ -1026,7 +1026,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>5</v>
@@ -1047,7 +1047,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>5</v>
@@ -1068,16 +1068,16 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1087,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>5</v>
@@ -1100,7 +1100,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>5</v>
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>5</v>
@@ -1142,7 +1142,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>5</v>
@@ -1163,16 +1163,16 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1182,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>5</v>
@@ -1195,7 +1195,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="1">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>5</v>
@@ -1216,7 +1216,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>22</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>5</v>
@@ -1237,7 +1237,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>22</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>5</v>
@@ -1259,6 +1259,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A11:G11"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:G21"/>
@@ -1266,12 +1272,6 @@
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
